--- a/importance_scores/importance_scores_vertebra-column-2c.xlsx
+++ b/importance_scores/importance_scores_vertebra-column-2c.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>features</t>
   </si>
   <si>
-    <t>PFBI FuzzyCMeans</t>
+    <t>PBFI FuzzyCMeans</t>
   </si>
   <si>
     <t>SHAP FuzzyCMeans</t>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>SHAP KMeans</t>
-  </si>
-  <si>
-    <t>PFBI Spectral</t>
-  </si>
-  <si>
-    <t>SHAP Spectral</t>
   </si>
   <si>
     <t>F1</t>
@@ -410,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,19 +426,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0.2642119747714941</v>
@@ -459,12 +447,12 @@
         <v>0.1659604578563992</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0.1846185311759519</v>
@@ -479,12 +467,12 @@
         <v>0.1114890738813734</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0.2446275580182804</v>
@@ -499,12 +487,12 @@
         <v>0.1436031911203603</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0.1578613166139373</v>
@@ -519,12 +507,12 @@
         <v>0.053083593479015</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0.06142899320780712</v>
@@ -539,12 +527,12 @@
         <v>0.01847970863683664</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0.08725162621252922</v>
